--- a/학습자료/순서배열/오답노트/오답노트_무한반복_순서배열_사건 순서_문제_구분통합.xlsx
+++ b/학습자료/순서배열/오답노트/오답노트_무한반복_순서배열_사건 순서_문제_구분통합.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,100 +463,54 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ㄱ. 여당 전쟁 
-ㄴ. 나당 연합군 결성 
-ㄷ. 나당 전쟁</t>
+          <t>ㄱ. 남부도위, 동부도위 폐지 (옥저, 동예 성립) 
+ㄴ. 토착 세력 반발로 현도군이 만주 흥경으로 이동. 이 자리에 고구려 성장 
+ㄷ. 낙랑군이 진번 땅에 남부도위, 임둔 땅에 동부도위 설치</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ㄴㄱㄷ</t>
+          <t>ㄱㄷㄴ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ㄱㄴㄷ</t>
+          <t>ㄷㄱㄴ</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>20221210</v>
+        <v>20221212</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ㄱ. 영객부 
-ㄴ. 공장부 
-ㄷ. 사정부</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>ㄱ. 비려(거란) 복속 
+ㄴ. 동부여 복속, 동예 흡수 
+ㄷ. 아신왕 격파, 백제 속국</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ㄱㄴㄷ</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>ㄱㄷㄴ</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>20221210</v>
-      </c>
-      <c r="E3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ㄱ. (포항) 영일 냉수리비 
-ㄴ. 포항 중성리 신라비 
-ㄷ. 영천 청제비</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ㄱㄴㄷ</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ㄴㄱㄷ</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>20221210</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ㄱ. 울진 봉평비 
-ㄴ. 창녕비 
-ㄷ. 단양 적성비</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ㄱㄴㄷ</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ㄱㄷㄴ</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20221210</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>10</t>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20221212</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>06</t>
         </is>
       </c>
     </row>

--- a/학습자료/순서배열/오답노트/오답노트_무한반복_순서배열_사건 순서_문제_구분통합.xlsx
+++ b/학습자료/순서배열/오답노트/오답노트_무한반복_순서배열_사건 순서_문제_구분통합.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,14 +749,512 @@
           <t>ㄱㄷㄴ</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>20221217</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>07</t>
+      <c r="D13" t="n">
+        <v>20221217</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ㄱ. 동부여 복속, 동예 흡수 
+ㄴ. 왜군 격파, 신라 속국 
+ㄷ. 비려(거란) 복속</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ㄷㄱㄴ</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ㄷㄴㄱ</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>07시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ㄱ. 임진강 등 한강 이북 장악 
+ㄴ. 비려(거란) 복속 
+ㄷ. 왜군 격파, 신라 속국</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ㄴㄱㄷ</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ㄴㄷㄱ</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>07시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ㄱ. 비려(거란) 복속 
+ㄴ. 왜군 격파, 신라 속국 
+ㄷ. 숙신(말갈) 복속</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ㄷㄱㄴ</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ㄱㄷㄴ</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>07시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ㄱ. 최우 집권 
+ㄴ. 이연년 형제의 난 
+ㄷ. 김사미, 효심의 난</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ㄷㄱㄴ</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>07시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ㄱ. 승부 
+ㄴ. 선부 
+ㄷ. 예작부</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ㄷㄱㄴ</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ㄱㄴㄷ</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>07시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ㄱ. 울진 봉평비 
+ㄴ. 창녕비 
+ㄷ. 영천 청제비</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ㄴㄱㄷ</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ㄱㄷㄴ</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>07시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ㄱ. 군적 수포제 
+ㄴ. 방군 수포 
+ㄷ. 보법</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ㄷㄱㄴ</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ㄷㄴㄱ</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>07시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ㄱ. 비려(거란) 복속 
+ㄴ. 아신왕 격파, 백제 속국 
+ㄷ. 숙신(말갈) 복속</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ㄱㄷㄴ</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ㄱㄴㄷ</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>07시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ㄱ. 광명, 계발의 난 
+ㄴ. 김사미, 효심의 난 
+ㄷ. 전주 관노의 난</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ㄷㄴㄱ</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>07시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ㄱ. 토착 세력 반발로 현도군이 만주 흥경으로 이동. 이 자리에 고구려 성장 
+ㄴ. 진번이 낙랑에, 임둔이 현도에 편입 
+ㄷ. 공손강이 지배 체제 강화를 위해 진번의 옛 땅에 대방군 설치</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ㄴㄷㄱ</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ㄴㄱㄷ</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>07시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ㄱ. 예부 
+ㄴ. 위화부 
+ㄷ. 품주</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ㄷㄴㄱ</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ㄴㄱㄷ</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>07시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ㄱ. 왜군 격파, 신라 속국 
+ㄴ. 임</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ㄱㄴㄷ</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>07시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ㄱ. 아신왕 격파, 백제 속국 
+ㄴ. 숙신(말갈) 복속 
+ㄷ. 동부여 복속, 동예 흡수</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ㄱㄷㄴ</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ㄱㄴㄷ</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>07시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ㄱ. 망이, 망소이의 난 
+ㄴ. 김사미, 효심의 난 
+ㄷ. 최충헌 집권</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ㄴㄷㄱ</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ㄱㄴㄷ</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>07시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ㄱ. 고구려 멸망 
+ㄴ. 나당 전쟁 
+ㄷ. 백제 멸망</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ㄴㄷㄱ</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ㄷㄱㄴ</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>07시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ㄱ. 대립 
+ㄴ. 군적 수포제 
+ㄷ. 방군 수포</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ㄱㄴㄷ</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ㄱㄷㄴ</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>07시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ㄱ. 공장부 
+ㄴ. 영객부 
+ㄷ. 위화부</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ㄴㄷㄱ</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ㄷㄴㄱ</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>07시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ㄱ. 울진 봉평비 
+ㄴ. 단양 적성비 
+ㄷ. 영천 청제비</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ㄱㄴㄷ</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ㄱㄷㄴ</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>07시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ㄱ. 숙신(말갈) 복속 
+ㄴ. 후연 격파, 요동 장악 
+ㄷ. 아신왕 격파, 백제 속국</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ㄱㄷㄴ</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ㄷㄱㄴ</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>20221224</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>07시 55분</t>
         </is>
       </c>
     </row>
